--- a/prisma/Seed.xlsx
+++ b/prisma/Seed.xlsx
@@ -5,30 +5,31 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/223047/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/223047/Documents/WorkSpace/MINE/sf_server/prisma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335E4DD5-AD27-9946-9572-85EC496F17E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92086C7E-5406-FA48-8BD6-06CB4AFDAB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="1840" windowWidth="28100" windowHeight="17360" firstSheet="3" activeTab="14" xr2:uid="{8D3072D8-4922-4744-AC47-66EDE5AB71CF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="13" xr2:uid="{8D3072D8-4922-4744-AC47-66EDE5AB71CF}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Profile" sheetId="2" r:id="rId2"/>
     <sheet name="Post" sheetId="3" r:id="rId3"/>
     <sheet name="BodyDetail" sheetId="4" r:id="rId4"/>
-    <sheet name="DayPlan" sheetId="5" r:id="rId5"/>
-    <sheet name="Nutrition" sheetId="6" r:id="rId6"/>
-    <sheet name="NutritionRow" sheetId="7" r:id="rId7"/>
-    <sheet name="MateriaUnit" sheetId="8" r:id="rId8"/>
-    <sheet name="MateriaCategory" sheetId="9" r:id="rId9"/>
-    <sheet name="Material" sheetId="10" r:id="rId10"/>
-    <sheet name="Ingredient" sheetId="11" r:id="rId11"/>
-    <sheet name="Method" sheetId="12" r:id="rId12"/>
-    <sheet name="Recipe" sheetId="14" r:id="rId13"/>
-    <sheet name="UserComment" sheetId="13" r:id="rId14"/>
-    <sheet name="Dish" sheetId="15" r:id="rId15"/>
-    <sheet name="Meal" sheetId="16" r:id="rId16"/>
+    <sheet name="Nutrition" sheetId="6" r:id="rId5"/>
+    <sheet name="NutritionRow" sheetId="7" r:id="rId6"/>
+    <sheet name="MateriaUnit" sheetId="8" r:id="rId7"/>
+    <sheet name="MateriaCategory" sheetId="9" r:id="rId8"/>
+    <sheet name="Material" sheetId="10" r:id="rId9"/>
+    <sheet name="Ingredient" sheetId="11" r:id="rId10"/>
+    <sheet name="Method" sheetId="12" r:id="rId11"/>
+    <sheet name="Recipe" sheetId="14" r:id="rId12"/>
+    <sheet name="Comment" sheetId="13" r:id="rId13"/>
+    <sheet name="DishTemplate" sheetId="15" r:id="rId14"/>
+    <sheet name="MealTemplate" sheetId="16" r:id="rId15"/>
+    <sheet name="DishPlan" sheetId="17" r:id="rId16"/>
+    <sheet name="MealPlan" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
@@ -136,21 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>startDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>breakfastMealId</t>
-  </si>
-  <si>
-    <t>luncnMealId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dinnerMealId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -221,14 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>makeDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cookShow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cookerId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,10 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>减脂B套餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,11 +347,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mealId</t>
+    <t>createdAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatedAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mealTemplateId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autherId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mealPlanId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUNCH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,13 +815,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -836,81 +834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DDCE6D-5749-124C-8711-05D76BD44A13}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61E07CB-7FD0-9B4E-8FA9-6DA4C747CD7D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -923,16 +851,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -975,7 +903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0B269D-5AEC-974E-AF2C-E4DD8B6A47F7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -990,16 +918,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1007,13 +935,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1025,7 +953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90B292B-607C-1B40-AEAB-C8BEF68B010A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1043,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1060,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1078,12 +1006,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA55CE32-0939-A642-99B2-F4EADCA3AFB5}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1091,7 +1019,7 @@
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1102,16 +1030,22 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1119,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1130,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1139,65 +1073,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33863DAB-CBBD-734B-BA39-BE269A9D6C14}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>45601</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1206,58 +1121,158 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC514C17-2CD8-C741-9165-2C58CD1B5A37}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB8CC69-0881-A74A-9082-BB3E089BDB0C}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8434CA-1C8A-854D-9B00-EE0D8070168E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
         <v>81</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45607</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1298,10 +1313,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1348,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1423,67 +1438,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554C0FFD-3C1D-5E42-B524-F259CC106918}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45600</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9111C33-44FA-AE45-836A-28D094A659B4}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1498,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1509,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1520,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1531,10 +1485,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1542,10 +1496,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA52996-1055-7749-9C6E-334F226572B2}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1573,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1644,7 +1598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD39BA5-C444-2343-89B1-BC86D3E908DF}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1659,13 +1613,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1673,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1688,7 +1642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B09956-5504-CB47-9D40-1C2D1F40BCF8}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1703,13 +1657,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1717,10 +1671,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1728,10 +1682,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1739,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1750,10 +1704,80 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DDCE6D-5749-124C-8711-05D76BD44A13}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
